--- a/data/trans_dic/P25C$smedicoempresa_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Provincia-trans_dic.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01540401812880513</v>
+        <v>0.01540401812880514</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0</v>
@@ -725,11 +725,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06080932397502022</v>
+        <v>0.0604710167735627</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.03601051719361521</v>
+        <v>0.03921736838588896</v>
       </c>
     </row>
     <row r="16">
@@ -777,10 +777,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.2594821901051004</v>
+        <v>0.2503483426225384</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08191720290521055</v>
+        <v>0.0949767269074169</v>
       </c>
     </row>
     <row r="19">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.01401417966895904</v>
+        <v>0.01401417966895903</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06569301682114853</v>
+        <v>0.06992683760136462</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.05338892189617489</v>
+        <v>0.05611990572934327</v>
       </c>
     </row>
     <row r="22">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
     </row>
     <row r="30">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="31">
@@ -1313,11 +1313,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6533</v>
+        <v>6496</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>6213</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="20">
@@ -1382,10 +1382,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>2292</v>
+        <v>2211</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2009</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="24">
@@ -1449,11 +1449,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2926</v>
+        <v>3114</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>2992</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="40">
